--- a/data/9-29-19_data/Division-2019-09-29-mod.xlsx
+++ b/data/9-29-19_data/Division-2019-09-29-mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\9-29-19_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB8BBC-B709-4375-8531-927F7A702BAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EF6A9-0AAE-46AC-9E17-C07D06A53CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>E-NL</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -412,19 +406,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -469,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -497,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -511,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -525,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -539,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -553,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -567,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -581,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -595,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -609,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -623,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -637,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -649,20 +643,6 @@
       </c>
       <c r="E16">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
